--- a/ConfigurationFiles/03-Score_weight_PL_LTQ.xlsx
+++ b/ConfigurationFiles/03-Score_weight_PL_LTQ.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19029"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,25 +27,25 @@
     <t>Type</t>
   </si>
   <si>
-    <t>SN1_[FA-H]-</t>
-  </si>
-  <si>
-    <t>SN2_[FA-H]-</t>
-  </si>
-  <si>
-    <t>[LPL(SN1)-H2O-H]-</t>
-  </si>
-  <si>
-    <t>[LPL(SN2)-H2O-H]-</t>
-  </si>
-  <si>
-    <t>[LPL(SN1)-H]-</t>
-  </si>
-  <si>
-    <t>[LPL(SN2)-H]-</t>
-  </si>
-  <si>
     <t>Group</t>
+  </si>
+  <si>
+    <t>FA1_[FA-H]-</t>
+  </si>
+  <si>
+    <t>FA2_[FA-H]-</t>
+  </si>
+  <si>
+    <t>[LPL(FA1)-H]-</t>
+  </si>
+  <si>
+    <t>[LPL(FA2)-H]-</t>
+  </si>
+  <si>
+    <t>[LPL(FA1)-H2O-H]-</t>
+  </si>
+  <si>
+    <t>[LPL(FA2)-H2O-H]-</t>
   </si>
 </sst>
 </file>
@@ -400,15 +400,15 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B7"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -416,12 +416,12 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B2">
         <v>40</v>
@@ -430,9 +430,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B3">
         <v>40</v>
@@ -441,9 +441,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B4">
         <v>5</v>
@@ -452,9 +452,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B5">
         <v>5</v>
@@ -463,9 +463,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B6">
         <v>5</v>
@@ -474,9 +474,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B7">
         <v>5</v>
